--- a/data/trans_dic/EXP_TABACO-Clase-trans_dic.xlsx
+++ b/data/trans_dic/EXP_TABACO-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda</t>
+          <t>Exposición pasiva al tabaco en la vivienda (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda</t>
+          <t>Exposición pasiva al tabaco en la vivienda (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/EXP_TABACO-Clase-trans_dic.xlsx
+++ b/data/trans_dic/EXP_TABACO-Clase-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 11,23</t>
+          <t>5,69; 12,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 12,68</t>
+          <t>6,08; 12,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,63; 26,5</t>
+          <t>18,13; 26,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 16,74</t>
+          <t>8,68; 16,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,6</t>
+          <t>8,52; 15,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,52; 19,98</t>
+          <t>13,72; 20,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,79</t>
+          <t>8,28; 13,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,76</t>
+          <t>7,94; 12,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,13</t>
+          <t>16,72; 22,16</t>
         </is>
       </c>
     </row>
@@ -797,14 +797,14 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>9,93%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,93%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
           <t>19,64%</t>
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,82; 14,92</t>
+          <t>5,7; 14,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 15,37</t>
+          <t>6,51; 15,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,62; 33,04</t>
+          <t>20,93; 32,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 16,17</t>
+          <t>6,58; 13,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 16,84</t>
+          <t>9,24; 16,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,75; 28,82</t>
+          <t>20,37; 29,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 14,27</t>
+          <t>7,12; 12,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,49; 14,4</t>
+          <t>8,42; 14,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,07; 29,18</t>
+          <t>21,75; 28,92</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 19,03</t>
+          <t>14,25; 23,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 87,5</t>
+          <t>8,57; 88,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,72; 33,74</t>
+          <t>17,75; 33,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 18,39</t>
+          <t>8,19; 21,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 14,05</t>
+          <t>4,74; 14,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 35,67</t>
+          <t>16,37; 36,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,63; 17,49</t>
+          <t>14,04; 21,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 83,17</t>
+          <t>8,49; 84,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,2; 32,03</t>
+          <t>19,04; 31,56</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 23,77</t>
+          <t>14,6; 22,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 21,03</t>
+          <t>12,23; 20,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,4; 32,65</t>
+          <t>21,95; 33,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,57; 21,52</t>
+          <t>13,65; 22,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 19,02</t>
+          <t>4,51; 19,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 37,26</t>
+          <t>25,06; 37,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 21,0</t>
+          <t>15,19; 20,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 17,83</t>
+          <t>7,5; 17,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,41; 33,5</t>
+          <t>25,54; 33,74</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,36; 22,37</t>
+          <t>9,1; 20,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,81; 24,57</t>
+          <t>11,9; 24,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,88; 48,61</t>
+          <t>25,85; 46,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,91; 17,32</t>
+          <t>9,73; 18,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 21,83</t>
+          <t>9,38; 21,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 26,2</t>
+          <t>13,09; 25,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,01</t>
+          <t>10,75; 16,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,48; 20,74</t>
+          <t>11,74; 21,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,38; 30,97</t>
+          <t>18,93; 30,94</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,37; 21,4</t>
+          <t>5,89; 21,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,94; 32,49</t>
+          <t>10,74; 31,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,21; 54,65</t>
+          <t>28,16; 55,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,6</t>
+          <t>5,99; 14,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,56; 20,46</t>
+          <t>11,55; 20,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,98; 32,36</t>
+          <t>16,08; 32,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,98</t>
+          <t>6,76; 14,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,42; 20,79</t>
+          <t>12,57; 20,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,71; 37,03</t>
+          <t>22,61; 37,08</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,5; 15,99</t>
+          <t>12,19; 15,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,55; 52,85</t>
+          <t>12,65; 50,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,18; 29,3</t>
+          <t>23,95; 29,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,45; 14,41</t>
+          <t>11,25; 14,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,94; 15,68</t>
+          <t>9,32; 15,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,72; 25,23</t>
+          <t>20,56; 25,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,32; 14,53</t>
+          <t>12,28; 14,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,69; 34,83</t>
+          <t>12,52; 33,88</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,76; 26,2</t>
+          <t>22,92; 26,3</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6313</t>
+          <t>15045</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9915</t>
+          <t>22937</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16228</t>
+          <t>37982</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4230; 8708</t>
+          <t>9946; 21886</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20665; 42965</t>
+          <t>20621; 43660</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37508; 53351</t>
+          <t>36512; 53250</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7568; 13295</t>
+          <t>16474; 31494</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23655; 43298</t>
+          <t>23658; 43701</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27856; 41157</t>
+          <t>28258; 42263</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12613; 20077</t>
+          <t>30194; 49628</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48714; 78672</t>
+          <t>48964; 78556</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>69445; 90143</t>
+          <t>68089; 90261</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4488</t>
+          <t>9653</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7530</t>
+          <t>11703</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12018</t>
+          <t>21356</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3081; 6741</t>
+          <t>5918; 15318</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19294; 45413</t>
+          <t>19227; 45586</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26026; 39778</t>
+          <t>25198; 39152</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5525; 10131</t>
+          <t>7985; 15976</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21855; 41502</t>
+          <t>22769; 41655</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34509; 47949</t>
+          <t>33892; 48427</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9646; 15388</t>
+          <t>16036; 28527</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>46014; 78006</t>
+          <t>45600; 80248</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>63294; 83659</t>
+          <t>62375; 82935</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12520</t>
+          <t>28206</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>7596</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16758</t>
+          <t>35802</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9905; 15705</t>
+          <t>21624; 35607</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>40093; 402306</t>
+          <t>39407; 406064</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2374,17 +2374,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15751; 29995</t>
+          <t>15776; 29858</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2585; 6200</t>
+          <t>4454; 11753</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4292; 12090</t>
+          <t>4076; 12608</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7306; 15772</t>
+          <t>7238; 16017</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13520; 20337</t>
+          <t>28926; 44662</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>46688; 453914</t>
+          <t>46317; 460185</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>25550; 42630</t>
+          <t>25345; 42014</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16866</t>
+          <t>32971</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16486</t>
+          <t>32918</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>33352</t>
+          <t>65889</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13940; 20497</t>
+          <t>26078; 40747</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59613; 102089</t>
+          <t>59346; 101247</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2582,17 +2582,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32289; 49266</t>
+          <t>33124; 50651</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13749; 20308</t>
+          <t>25532; 42134</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26417; 115529</t>
+          <t>27404; 115515</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2602,17 +2602,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38733; 56122</t>
+          <t>37734; 55798</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28508; 37926</t>
+          <t>55559; 75558</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>79501; 194876</t>
+          <t>81975; 192560</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>76620; 101007</t>
+          <t>77014; 101715</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5990</t>
+          <t>10023</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9508</t>
+          <t>16620</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15498</t>
+          <t>26643</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4143; 8155</t>
+          <t>6647; 14642</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>22633; 47070</t>
+          <t>22788; 47867</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12971; 24360</t>
+          <t>12953; 23361</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7174; 12540</t>
+          <t>12048; 22428</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>38364; 85881</t>
+          <t>36879; 84626</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2810,17 +2810,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10580; 22186</t>
+          <t>11082; 21471</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>12272; 18522</t>
+          <t>21159; 33131</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>67122; 121305</t>
+          <t>68693; 123409</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>26130; 41752</t>
+          <t>25520; 41708</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2346</t>
+          <t>5927</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4629</t>
+          <t>11642</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6975</t>
+          <t>17569</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1276; 3707</t>
+          <t>2851; 10524</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17128; 50871</t>
+          <t>16810; 49047</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2998,17 +2998,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7179; 13906</t>
+          <t>7166; 14101</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3053; 6449</t>
+          <t>7448; 17836</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>50206; 88869</t>
+          <t>50143; 87276</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3018,17 +3018,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7603; 16422</t>
+          <t>8159; 16667</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5225; 9365</t>
+          <t>11677; 25024</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>73385; 122848</t>
+          <t>74275; 123478</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17302; 28215</t>
+          <t>17230; 28256</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>48523</t>
+          <t>101825</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>52305</t>
+          <t>103416</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>100828</t>
+          <t>205240</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>43170; 55201</t>
+          <t>89076; 115700</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>241841; 1018829</t>
+          <t>243903; 972061</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>154050; 186659</t>
+          <t>152590; 186142</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>46190; 58143</t>
+          <t>90065; 118243</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>182830; 320540</t>
+          <t>190618; 322525</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>145582; 177240</t>
+          <t>144424; 176391</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>92196; 108769</t>
+          <t>188012; 226133</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>504059; 1383805</t>
+          <t>497504; 1345868</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>304870; 351046</t>
+          <t>307081; 352388</t>
         </is>
       </c>
     </row>
